--- a/XCustPr/doc/60-12-03/PO001_UNIT_TEST_RESULT.xlsx
+++ b/XCustPr/doc/60-12-03/PO001_UNIT_TEST_RESULT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9030" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9030" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CASE" sheetId="11" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="PR03102017" localSheetId="10">Isssue34!$A$9:$K$12</definedName>
     <definedName name="PR03102017" localSheetId="12">'เฉลย Case 3'!$A$2:$L$5</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4887,7 +4887,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="390">
   <si>
     <t>NO</t>
   </si>
@@ -6083,6 +6083,9 @@
   <si>
     <t xml:space="preserve">Case อ่าน file มากกว่า 1 File ไมม่มีการ Move File ที่ Validate ไม่ผ่านไปอยูที่ Error Folder
 และไม่มีการ Move File ที่ Validatte ผ่าน ไปไว้ยัง Folder Archive </t>
+  </si>
+  <si>
+    <t>ให้ stamp ไหน</t>
   </si>
 </sst>
 </file>
@@ -6169,7 +6172,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6227,6 +6230,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6311,7 +6326,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1"/>
@@ -6384,6 +6399,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="* Required" xfId="2"/>
@@ -7251,7 +7269,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7261,9 +7279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8147,7 +8163,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8449,8 +8465,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8564,7 +8580,7 @@
       <c r="A5" s="21">
         <v>6</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="49" t="s">
         <v>304</v>
       </c>
       <c r="C5" s="21">
@@ -8586,7 +8602,7 @@
       <c r="A6" s="21">
         <v>7</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="47" t="s">
         <v>304</v>
       </c>
       <c r="C6" s="21">
@@ -8794,7 +8810,7 @@
       <c r="A16" s="23">
         <v>17</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="50" t="s">
         <v>304</v>
       </c>
       <c r="C16" s="21">
@@ -8818,7 +8834,7 @@
       <c r="A17" s="23">
         <v>18</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="49" t="s">
         <v>304</v>
       </c>
       <c r="C17" s="21">
@@ -8944,7 +8960,7 @@
       <c r="A23" s="23">
         <v>24</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="49" t="s">
         <v>304</v>
       </c>
       <c r="C23" s="21">
@@ -8990,7 +9006,7 @@
       <c r="A25" s="23">
         <v>26</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="47" t="s">
         <v>304</v>
       </c>
       <c r="C25" s="21">
@@ -9012,7 +9028,7 @@
       <c r="A26" s="23">
         <v>27</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="47" t="s">
         <v>304</v>
       </c>
       <c r="C26" s="21">
@@ -9036,7 +9052,7 @@
       <c r="A27" s="23">
         <v>28</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="47" t="s">
         <v>304</v>
       </c>
       <c r="C27" s="21">
@@ -9045,7 +9061,9 @@
       <c r="D27" s="33" t="s">
         <v>303</v>
       </c>
-      <c r="E27" s="21"/>
+      <c r="E27" s="48" t="s">
+        <v>389</v>
+      </c>
       <c r="F27" s="23" t="s">
         <v>159</v>
       </c>
@@ -9084,7 +9102,7 @@
       <c r="A29" s="21">
         <v>30</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="47" t="s">
         <v>304</v>
       </c>
       <c r="C29" s="21">
@@ -9108,7 +9126,7 @@
       <c r="A30" s="21">
         <v>31</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="47" t="s">
         <v>304</v>
       </c>
       <c r="C30" s="21">
